--- a/PPDuino_Nano_Electronic/V0.2/Entradas/PPDuino Nano Entradas.xlsx
+++ b/PPDuino_Nano_Electronic/V0.2/Entradas/PPDuino Nano Entradas.xlsx
@@ -111,9 +111,6 @@
     <t>Package_TO_SOT_THT:TO-92L_Inline_Wide</t>
   </si>
   <si>
-    <t>R1,R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R14,R15,R16,R17</t>
-  </si>
-  <si>
     <t>2.2k</t>
   </si>
   <si>
@@ -124,6 +121,12 @@
   </si>
   <si>
     <t>1k</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R5,
+R6,R7,R8,R9,R10,
+R11,R12,R14,
+R15,R16,R17</t>
   </si>
 </sst>
 </file>
@@ -951,12 +954,13 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="6"/>
   </cols>
@@ -1115,15 +1119,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="5">
         <v>16</v>
@@ -1131,13 +1135,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
